--- a/biology/Histoire de la zoologie et de la botanique/Johann_Heinrich_Kaltenbach/Johann_Heinrich_Kaltenbach.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Heinrich_Kaltenbach/Johann_Heinrich_Kaltenbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Heinrich Kaltenbach (né le 30 octobre 1807, à Cologne – décédé le 20 mai 1876, à Aix-la-Chapelle), est un naturaliste et entomologiste prussien intéressé principalement par les espèces de ravageurs. Il fut enseignant à Aix-la-Chapelle.
 </t>
@@ -511,12 +523,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(de) Monographie der Familien der Pflanzenläuse (Phytophthires); Aachen, In Commission der Roschütz'schen Buchandlung (1843)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(de) Monographie der Familien der Pflanzenläuse (Phytophthires); Aachen, In Commission der Roschütz'schen Buchandlung (1843).
 (de) Die deutschen Phytophagen aus der Klasse der Insekten. Fortsetzung. Alphabetisches Verzeichniss der deutschen Pflanzengattungen (Buchstabe B). Verh. Naturforsch. Ver. Preuss. Rheinl. Westfalens 15: 77-161.(1858).
-(de) Die Pflanzenfeinde aus der Klasse der Insekten. Ein nach Pflanzenfamilien geordnetes Handbuch sammtlicher auf den einheimischen Pflanzen bisher beobachteten Insekten zum Gebrauch fhr Entomologen, Insektensammler, Botaniker, Land- und Forstwirthe und Gartenfreunde. Hoffman, Stuttgart. viii + 848 p.([1872]). 3 parties.
-En botanique, Kaltenbach fut l'auteur de Flora des Aachener Beckens (Flore du bassin d'Aix la chapelle), un livre dans lequel il identifia près de 800 phanérogames[2],[3].
+(de) Die Pflanzenfeinde aus der Klasse der Insekten. Ein nach Pflanzenfamilien geordnetes Handbuch sammtlicher auf den einheimischen Pflanzen bisher beobachteten Insekten zum Gebrauch fhr Entomologen, Insektensammler, Botaniker, Land- und Forstwirthe und Gartenfreunde. Hoffman, Stuttgart. viii + 848 p.(). 3 parties.
+En botanique, Kaltenbach fut l'auteur de Flora des Aachener Beckens (Flore du bassin d'Aix la chapelle), un livre dans lequel il identifia près de 800 phanérogames,.
 </t>
         </is>
       </c>
